--- a/biology/Médecine/Julius_Koch/Julius_Koch.xlsx
+++ b/biology/Médecine/Julius_Koch/Julius_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julius Koch, aussi connu sous le nom du Géant Constantin, né en 1872 et mort le 30 mars 1902 à Mons en Belgique, est l'une des dix-sept personnes de l'histoire médicale à avoir dépassé la taille de 2,44 m. 
-Affecté de gigantisme, il mesurait entre 246 et 256 cm selon les sources[1],[2]. Il a été amputé de la jambe droite vers 1901 après avoir développé une gangrène symétrique des deux pieds[3].
+Affecté de gigantisme, il mesurait entre 246 et 256 cm selon les sources,. Il a été amputé de la jambe droite vers 1901 après avoir développé une gangrène symétrique des deux pieds.
 Il a notamment figuré dans le court métrage, The Giant Constantin sorti en 1902.
 Son squelette est conservé au Musée d'histoire naturelle de Mons.
 </t>
